--- a/dsalgo/src/test/resources/TestData/dataXL.xlsx
+++ b/dsalgo/src/test/resources/TestData/dataXL.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sures\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{3AE312AC-7747-42E5-A41A-21850C04A7D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34AE3D6F-4813-4CD7-8977-4E4B8C4E8173}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{32937ECE-ECED-47E1-AD42-E136BD260588}"/>
+    <workbookView xWindow="-103" yWindow="-103" windowWidth="16663" windowHeight="8863" activeTab="1" xr2:uid="{32937ECE-ECED-47E1-AD42-E136BD260588}"/>
   </bookViews>
   <sheets>
     <sheet name="data1" sheetId="1" r:id="rId1"/>
+    <sheet name="arrayXL" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,19 +37,375 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t>print('DataStructure introduction')</t>
   </si>
   <si>
     <t>print('DataStructure introduction)</t>
+  </si>
+  <si>
+    <r>
+      <t>print</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF40C440"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"array"</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>print</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFAAAAAA"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFCACACA"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>array</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF40C440"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">" </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>print</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF40C440"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"phython list"</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>print</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFAAAAAA"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFCACACA"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>negative</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFAAAAAA"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFCACACA"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>array</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFAAAAAA"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFCACACA"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>list</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>print</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF40C440"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"user work on basic operation of list"</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>print</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFAAAAAA"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFCACACA"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>user</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFAAAAAA"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFCACACA"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>work</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFAAAAAA"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFCACACA"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>on</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFAAAAAA"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFCACACA"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>basic</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFAAAAAA"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFCACACA"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>operation</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFAAAAAA"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFCACACA"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>of</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFAAAAAA"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFCACACA"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>list</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFAAAAAA"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFCACACA"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>negative</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFAAAAAA"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFCACACA"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>test</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF40C440"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"</t>
+    </r>
+  </si>
+  <si>
+    <t>print(FindNumberswithEvenNumberofDigits)</t>
+  </si>
+  <si>
+    <t>print(Squares of a Sorted Array link )</t>
+  </si>
+  <si>
+    <r>
+      <t>print("</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFCACACA"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>question</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFAAAAAA"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFCACACA"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>page</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF40C440"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>")</t>
+    </r>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -59,6 +416,18 @@
     <font>
       <sz val="12"/>
       <color rgb="FF40C440"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFAAAAAA"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFCACACA"/>
       <name val="Consolas"/>
       <family val="3"/>
     </font>
@@ -83,9 +452,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -404,23 +776,87 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{75D66F9A-868C-45B2-9BE6-5DA9B3D7F89C}">
   <dimension ref="A1:A2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="45.7109375" customWidth="1"/>
+    <col min="1" max="1" width="45.69140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1" ht="15.45" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:1" ht="15.45" x14ac:dyDescent="0.4">
       <c r="A2" s="1" t="s">
         <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EA579B99-FB4E-4638-8FF2-56B1D1FF6C2F}">
+  <dimension ref="A1:A9"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A9" sqref="A9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="1" max="1" width="67.53515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" ht="15.45" x14ac:dyDescent="0.4">
+      <c r="A1" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" ht="15.45" x14ac:dyDescent="0.4">
+      <c r="A2" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" ht="15.45" x14ac:dyDescent="0.4">
+      <c r="A3" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" ht="15.45" x14ac:dyDescent="0.4">
+      <c r="A4" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" ht="15.45" x14ac:dyDescent="0.4">
+      <c r="A5" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" ht="15.45" x14ac:dyDescent="0.4">
+      <c r="A6" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" ht="15.45" x14ac:dyDescent="0.4">
+      <c r="A7" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" ht="15.45" x14ac:dyDescent="0.4">
+      <c r="A8" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" ht="15.45" x14ac:dyDescent="0.4">
+      <c r="A9" s="1" t="s">
+        <v>9</v>
       </c>
     </row>
   </sheetData>

--- a/dsalgo/src/test/resources/TestData/dataXL.xlsx
+++ b/dsalgo/src/test/resources/TestData/dataXL.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sures\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34AE3D6F-4813-4CD7-8977-4E4B8C4E8173}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA326144-47E1-40B1-AB15-03D3049A8195}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-103" yWindow="-103" windowWidth="16663" windowHeight="8863" activeTab="1" xr2:uid="{32937ECE-ECED-47E1-AD42-E136BD260588}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="19">
   <si>
     <t>print('DataStructure introduction')</t>
   </si>
@@ -354,58 +354,125 @@
     </r>
   </si>
   <si>
-    <t>print(FindNumberswithEvenNumberofDigits)</t>
-  </si>
-  <si>
-    <t>print(Squares of a Sorted Array link )</t>
-  </si>
-  <si>
-    <r>
-      <t>print("</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFCACACA"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>question</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFAAAAAA"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFCACACA"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>page</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF40C440"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>")</t>
-    </r>
+    <t>print"Applications of Array"</t>
+  </si>
+  <si>
+    <t>print invalid Applications of Array"</t>
+  </si>
+  <si>
+    <t>PythonCode</t>
+  </si>
+  <si>
+    <t>"def search(input_list, num):
+if(num in input_list):
+print(""Element Found"")
+\b
+\b
+else:
+print(""Not Found"")
+\b
+\b
+\b
+\b
+search([12, 23, 45, 67, 6, 90] , 12)"</t>
+  </si>
+  <si>
+    <t>"def findMaxConsecutiveOnes(nums) :
+count = 0
+result = 0
+for i in range(0, len(nums)):
+if (nums[i] == 0):
+count = 0
+\b
+\b
+else:
+count+= 1
+\b
+\b
+result = max(result, count)
+\b
+\b
+print(result)
+\b
+\b
+findMaxConsecutiveOnes([1,0,1,1,0,1])"</t>
+  </si>
+  <si>
+    <t>"def findNumbers(nums):
+c=0
+for i in nums:
+j=str(i)
+x=len(j)
+if x%2==0:
+c=c+1
+\b
+\b
+\b
+\b
+print c
+return c
+findNumbers([12,345,2,6,7896])"</t>
+  </si>
+  <si>
+    <t>"def sortedSquares(nums):
+squares_list = []
+for i in range(0, len(nums)):
+square = nums[i] * nums[i];
+squares_list.append(square)
+\b
+\b
+sorted_squares_list = sorted(squares_list)
+print sorted_squares_list;
+return sorted_squares_list;
+sortedSquares([-7,-3,2,3,11])"</t>
+  </si>
+  <si>
+    <t>Output</t>
+  </si>
+  <si>
+    <t>array</t>
+  </si>
+  <si>
+    <t>def search(list, value):
+    if value in list:
+        return "Element Found"
+    else:
+        return "Not Found"
+# Example usage
+input_list = [12, 23, 45, 67, 6, 90]
+search_value = 12
+result = search(input_list, search_value)
+print(result)</t>
+  </si>
+  <si>
+    <t>def find_max_consecutive_ones(nums):
+    max_ones = 0  # Variable to store the maximum consecutive 1's
+    current_ones = 0  # Variable to track the current consecutive 1's
+    max_ones_start = -1  # Starting index of the maximum consecutive 1's
+    max_ones_end = -1  # Ending index of the maximum consecutive 1's
+    for i, num in enumerate(nums):
+        if num == 1:
+            current_ones += 1
+            if current_ones == 1:
+                max_ones_start = i  # Set the starting index of consecutive 1's
+            if current_ones &gt; max_ones:
+                max_ones = current_ones
+                max_ones_end = i  # Update the ending index of consecutive 1's
+        else:
+            current_ones = 0
+    return max_ones, max_ones_start, max_ones_end
+# Example usage
+nums = [1, 1, 0, 1, 1, 1]
+result, start, end = find_max_consecutive_ones(nums)
+print(f"The maximum number of consecutive 1's is: {result}")
+print(f"The consecutive 1's start at index {start} and end at index {end}.")</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -431,6 +498,12 @@
       <name val="Consolas"/>
       <family val="3"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF17C6A3"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -452,7 +525,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -460,6 +533,10 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -803,61 +880,158 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EA579B99-FB4E-4638-8FF2-56B1D1FF6C2F}">
-  <dimension ref="A1:A9"/>
+  <dimension ref="A1:B34"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+    <sheetView tabSelected="1" zoomScale="49" zoomScaleNormal="49" workbookViewId="0">
+      <selection activeCell="A14" sqref="A14:XFD14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="67.53515625" customWidth="1"/>
+    <col min="1" max="1" width="217.3046875" style="4" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" ht="15.45" x14ac:dyDescent="0.4">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:2" ht="15.45" x14ac:dyDescent="0.4">
+      <c r="A1" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="15.45" x14ac:dyDescent="0.4">
+      <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:1" ht="15.45" x14ac:dyDescent="0.4">
-      <c r="A2" s="2" t="s">
+      <c r="B2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="15.45" x14ac:dyDescent="0.4">
+      <c r="A3" s="2" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:1" ht="15.45" x14ac:dyDescent="0.4">
-      <c r="A3" s="2" t="s">
+    <row r="4" spans="1:2" ht="15.45" x14ac:dyDescent="0.4">
+      <c r="A4" s="2" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:1" ht="15.45" x14ac:dyDescent="0.4">
-      <c r="A4" s="2" t="s">
+    <row r="5" spans="1:2" ht="15.45" x14ac:dyDescent="0.4">
+      <c r="A5" s="2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:1" ht="15.45" x14ac:dyDescent="0.4">
-      <c r="A5" s="2" t="s">
+    <row r="6" spans="1:2" ht="15.45" x14ac:dyDescent="0.4">
+      <c r="A6" s="2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:1" ht="15.45" x14ac:dyDescent="0.4">
-      <c r="A6" s="2" t="s">
+    <row r="7" spans="1:2" ht="15.45" x14ac:dyDescent="0.4">
+      <c r="A7" s="2" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="1:1" ht="15.45" x14ac:dyDescent="0.4">
-      <c r="A7" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="8" spans="1:1" ht="15.45" x14ac:dyDescent="0.4">
-      <c r="A8" s="1" t="s">
+    <row r="8" spans="1:2" ht="15.45" x14ac:dyDescent="0.4">
+      <c r="A8" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="1:1" ht="15.45" x14ac:dyDescent="0.4">
-      <c r="A9" s="1" t="s">
+    <row r="9" spans="1:2" ht="15.45" x14ac:dyDescent="0.4">
+      <c r="A9" s="2" t="s">
         <v>9</v>
       </c>
+    </row>
+    <row r="10" spans="1:2" s="4" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A10" s="4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A11" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" s="4" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A12" s="4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" s="4" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A13" s="4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" s="4" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A14" s="4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" s="4" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A15" s="4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" s="4" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A16" s="4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" s="4" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A17" s="4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A18"/>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A19"/>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A20"/>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A21"/>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A22"/>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A23"/>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A24"/>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A25"/>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A26"/>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A27"/>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A28"/>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A29"/>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A30"/>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A31"/>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A32"/>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A33"/>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A34"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
